--- a/medicine/Mort/Décès_en_1901/Décès_en_1901.xlsx
+++ b/medicine/Mort/Décès_en_1901/Décès_en_1901.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -509,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -527,7 +539,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>4 janvier : Nikolaos Gysis, peintre grec (° 1er mars 1842).
 5 janvier : Pierre Potain, chirurgien français, académicien (° 19 juillet 1825).
@@ -547,7 +561,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -565,7 +579,9 @@
           <t>février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>8 février : Otto Reinhold Jacobi, peintre germano-canadien (° 27 février 1812).
 10 février : Telemaco Signorini, peintre italien  (° 18 août 1835).
@@ -586,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -604,7 +620,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>2 mars : Achille Zo, peintre français (° 30 juillet 1826).
 3 mars : Bonaventure Petit, professeur de piano, organiste et compositeur français (° 14 octobre 1811).
@@ -621,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,7 +657,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7 avril : Ladislav Pejačević, homme politique et noble austro-hongrois et croate (° 5 avril 1824).
 15 avril : Juan Manuel Blanes, peintre uruguayen (° 8 juin 1830).</t>
@@ -652,7 +672,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -670,7 +690,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2 mai : Blaise Alexandre Desgoffe, peintre français (° 17 janvier 1830).
 5 mai : Jules Laurens, peintre et lithographe français (° 27 juillet 1825).
@@ -684,7 +706,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -702,7 +724,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>13 juin : Arthur Sturgis Hardy, premier ministre de l'Ontario (° 14 décembre 1837).
 15 juin : José Luis Pellicer, peintre catalan (° 12 mai 1842).
@@ -716,7 +740,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -734,7 +758,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>4 juillet : Gaspard Chatin, botaniste français, académicien (° 30 novembre 1813).
 18 juillet : Carlo Alfredo Piatti, violoncelliste et compositeur italien (° 8 janvier 1822).
@@ -748,7 +774,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,7 +792,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>5 août : Victoria Adélaïde, fille de la reine Victoria (° 21 novembre 1840).
 10 août : Otto von Faber du Faur, peintre et militaire allemand (° 3 juin 1828).
@@ -786,7 +814,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -804,7 +832,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>8 septembre : Johannes von Miquel, homme d'État prussien (° 19 février 1828).
 9 septembre :
@@ -821,7 +851,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -839,7 +869,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>4 octobre : Rafael Spínola, écrivain, journaliste et homme politique guatemaltèque (° 1866).
 13 octobre : Domenico Morelli, peintre et Personnalité politique italienne (° 4 août 1826).
@@ -858,7 +890,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -876,7 +908,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>12 novembre : Julia McGroarty, religieuse américaine (° 13 février 1827).
 15 novembre : Egisto Sarri, peintre italien (° 1837).
@@ -894,7 +928,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -912,7 +946,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>14 décembre :
 Adolf Müller junior, compositeur d'opérettes et chef d'orchestre autrichien (° 15 octobre 1839).
@@ -929,7 +965,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1901</t>
+          <t>Décès_en_1901</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -947,7 +983,9 @@
           <t>Date inconnue</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Oreste Costa, peintre italien (° 1851).
 David Fagen, soldat afro-américain qui déserte pendant la guerre américano-philippine et devient capitaine dans l'armée révolutionnaire des Philippines (° 1875).
